--- a/MyStaff.xlsx
+++ b/MyStaff.xlsx
@@ -28,7 +28,7 @@
     <font>
       <b val="1"/>
       <i val="1"/>
-      <color rgb="000000FF"/>
+      <color rgb="00FF5733"/>
     </font>
   </fonts>
   <fills count="2">
